--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段一/导入模版/班级信息.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段一/导入模版/班级信息.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\因卓教育阶段一\导入模版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\兼职项目\其他测试\因卓科技教育平台\导入模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="班级信息" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>班级名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,148 +39,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班主任工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小学部</t>
-  </si>
-  <si>
-    <t>二年级</t>
-  </si>
-  <si>
-    <t>三年级</t>
-  </si>
-  <si>
-    <t>六年级</t>
-  </si>
-  <si>
-    <t>初中部</t>
-  </si>
-  <si>
-    <t>初二</t>
-  </si>
-  <si>
-    <t>高中部</t>
-  </si>
-  <si>
-    <t>高一</t>
-  </si>
-  <si>
-    <t>高二</t>
-  </si>
-  <si>
-    <t>高三</t>
+    <t>班级简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入班级1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介班级简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一年级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+    <t>410105198109280537</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,18 +89,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -252,13 +132,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -354,23 +238,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -406,23 +273,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -599,257 +449,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="12.19921875" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="8:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
